--- a/Ant Colony/Antek Mrowka.xlsx
+++ b/Ant Colony/Antek Mrowka.xlsx
@@ -473,31 +473,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.242640687119285</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="D2" t="n">
-        <v>7.211102550927978</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="E2" t="n">
-        <v>7.280109889280518</v>
+        <v>5.315072906367325</v>
       </c>
       <c r="F2" t="n">
-        <v>15.03329637837291</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>12.36931687685298</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>16.64331697709324</v>
+        <v>16.40121946685673</v>
       </c>
       <c r="I2" t="n">
-        <v>10.295630140987</v>
+        <v>10.63014581273465</v>
       </c>
       <c r="J2" t="n">
-        <v>10.63014581273465</v>
+        <v>10.81665382639197</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>6.082762530298219</v>
       </c>
     </row>
     <row r="3">
@@ -505,34 +505,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.242640687119285</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.16227766016838</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="E3" t="n">
-        <v>4.123105625617661</v>
+        <v>5.024937810560445</v>
       </c>
       <c r="F3" t="n">
-        <v>12.64911064067352</v>
+        <v>8.602325267042627</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>2.692582403567252</v>
       </c>
       <c r="H3" t="n">
-        <v>12.52996408614167</v>
+        <v>15.65247584249853</v>
       </c>
       <c r="I3" t="n">
-        <v>6.324555320336759</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="J3" t="n">
-        <v>6.403124237432849</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="K3" t="n">
-        <v>6.708203932499369</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -540,34 +540,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.211102550927978</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C4" t="n">
-        <v>3.16227766016838</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.23606797749979</v>
+        <v>5.590169943749475</v>
       </c>
       <c r="F4" t="n">
-        <v>10.295630140987</v>
+        <v>7.615773105863909</v>
       </c>
       <c r="G4" t="n">
+        <v>9.013878188659973</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.848857801796104</v>
+      </c>
+      <c r="I4" t="n">
         <v>6.082762530298219</v>
       </c>
-      <c r="H4" t="n">
-        <v>9.433981132056603</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.16227766016838</v>
-      </c>
       <c r="J4" t="n">
-        <v>4.123105625617661</v>
+        <v>8.54400374531753</v>
       </c>
       <c r="K4" t="n">
-        <v>7.810249675906654</v>
+        <v>11.18033988749895</v>
       </c>
     </row>
     <row r="5">
@@ -575,34 +575,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.280109889280518</v>
+        <v>5.315072906367325</v>
       </c>
       <c r="C5" t="n">
-        <v>4.123105625617661</v>
+        <v>5.024937810560445</v>
       </c>
       <c r="D5" t="n">
-        <v>2.23606797749979</v>
+        <v>5.590169943749475</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.54400374531753</v>
+        <v>4.924428900898052</v>
       </c>
       <c r="G5" t="n">
-        <v>5.099019513592784</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>9.899494936611665</v>
+        <v>11.10180165558726</v>
       </c>
       <c r="I5" t="n">
-        <v>3.605551275463989</v>
+        <v>5.315072906367325</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>5.852349955359813</v>
       </c>
       <c r="K5" t="n">
-        <v>9.899494936611665</v>
+        <v>5.590169943749475</v>
       </c>
     </row>
     <row r="6">
@@ -610,34 +610,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.03329637837291</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>12.64911064067352</v>
+        <v>8.602325267042627</v>
       </c>
       <c r="D6" t="n">
-        <v>10.295630140987</v>
+        <v>7.615773105863909</v>
       </c>
       <c r="E6" t="n">
-        <v>8.54400374531753</v>
+        <v>4.924428900898052</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>9.604686356149273</v>
       </c>
       <c r="H6" t="n">
-        <v>10.04987562112089</v>
+        <v>7.280109889280518</v>
       </c>
       <c r="I6" t="n">
-        <v>8.48528137423857</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="J6" t="n">
-        <v>12.0415945787923</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>18.02775637731995</v>
+        <v>7.280109889280518</v>
       </c>
     </row>
     <row r="7">
@@ -645,34 +645,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.36931687685298</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>2.692582403567252</v>
       </c>
       <c r="D7" t="n">
-        <v>6.082762530298219</v>
+        <v>9.013878188659973</v>
       </c>
       <c r="E7" t="n">
-        <v>5.099019513592784</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>9.604686356149273</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.324555320336759</v>
+        <v>16.10124218810462</v>
       </c>
       <c r="I7" t="n">
-        <v>3.605551275463989</v>
+        <v>10.30776406404415</v>
       </c>
       <c r="J7" t="n">
-        <v>7.071067811865476</v>
+        <v>10.40432602334241</v>
       </c>
       <c r="K7" t="n">
-        <v>13.41640786499874</v>
+        <v>5.590169943749475</v>
       </c>
     </row>
     <row r="8">
@@ -680,34 +680,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.64331697709324</v>
+        <v>16.40121946685673</v>
       </c>
       <c r="C8" t="n">
-        <v>12.52996408614167</v>
+        <v>15.65247584249853</v>
       </c>
       <c r="D8" t="n">
-        <v>9.433981132056603</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="E8" t="n">
-        <v>9.899494936611665</v>
+        <v>11.10180165558726</v>
       </c>
       <c r="F8" t="n">
-        <v>10.04987562112089</v>
+        <v>7.280109889280518</v>
       </c>
       <c r="G8" t="n">
-        <v>6.324555320336759</v>
+        <v>16.10124218810462</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.403124237432849</v>
+        <v>5.830951894845301</v>
       </c>
       <c r="J8" t="n">
         <v>7.071067811865476</v>
       </c>
       <c r="K8" t="n">
-        <v>14</v>
+        <v>14.56021977856104</v>
       </c>
     </row>
     <row r="9">
@@ -715,34 +715,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.295630140987</v>
+        <v>10.63014581273465</v>
       </c>
       <c r="C9" t="n">
-        <v>6.324555320336759</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="D9" t="n">
-        <v>3.16227766016838</v>
+        <v>6.082762530298219</v>
       </c>
       <c r="E9" t="n">
-        <v>3.605551275463989</v>
+        <v>5.315072906367325</v>
       </c>
       <c r="F9" t="n">
-        <v>8.48528137423857</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="G9" t="n">
-        <v>3.605551275463989</v>
+        <v>10.30776406404415</v>
       </c>
       <c r="H9" t="n">
-        <v>6.403124237432849</v>
+        <v>5.830951894845301</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.605551275463989</v>
+        <v>2.82842712474619</v>
       </c>
       <c r="K9" t="n">
-        <v>9.848857801796104</v>
+        <v>9.055385138137417</v>
       </c>
     </row>
     <row r="10">
@@ -750,34 +750,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.63014581273465</v>
+        <v>10.81665382639197</v>
       </c>
       <c r="C10" t="n">
-        <v>6.403124237432849</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="D10" t="n">
-        <v>4.123105625617661</v>
+        <v>8.54400374531753</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5.852349955359813</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0415945787923</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>7.071067811865476</v>
+        <v>10.40432602334241</v>
       </c>
       <c r="H10" t="n">
         <v>7.071067811865476</v>
       </c>
       <c r="I10" t="n">
-        <v>3.605551275463989</v>
+        <v>2.82842712474619</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.071067811865476</v>
+        <v>7.615773105863909</v>
       </c>
     </row>
     <row r="11">
@@ -785,31 +785,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>6.082762530298219</v>
       </c>
       <c r="C11" t="n">
-        <v>6.708203932499369</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>7.810249675906654</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="E11" t="n">
-        <v>9.899494936611665</v>
+        <v>5.590169943749475</v>
       </c>
       <c r="F11" t="n">
-        <v>18.02775637731995</v>
+        <v>7.280109889280518</v>
       </c>
       <c r="G11" t="n">
-        <v>13.41640786499874</v>
+        <v>5.590169943749475</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>14.56021977856104</v>
       </c>
       <c r="I11" t="n">
-        <v>9.848857801796104</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="J11" t="n">
-        <v>7.071067811865476</v>
+        <v>7.615773105863909</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
